--- a/scheduling_recent.xlsx
+++ b/scheduling_recent.xlsx
@@ -24,9 +24,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -8144,7 +8143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8216,6 +8215,161 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>0b85db2044f3f2338aaca100c731076c$1d54369056bfecf73c2055fbd1327a70d30396249a84a1163555b9780f21db83</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trainer</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7d28644c8e2f314ff8ea55f2ee67101c$9014a8a14a85ab046620e4e79f893da088d858fe488e93816e776542ef6cd182</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>jackr@eqstratgist.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>trainer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dalew@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>trainer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dale</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sues@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>doms@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nabinp@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>view_only</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>bernardl@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>view_only</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0f26b950828cae6f35f7fc658ab067ef$449776c03dee9b39b5666264e69da596ac0322812bac0b7b169bd8df10c1257f</t>
         </is>
       </c>
     </row>
@@ -8837,7 +8991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8884,6 +9038,270 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:20:26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dev@admin.local</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:28:38</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:31:54</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:32:20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:43:07</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:43:26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sues@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:43:41</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sues@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:45:20</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nabinp@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:45:52</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sues@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:53:02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:53:17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nabinp@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>User logged in</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-01 08:53:39</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>andrewd@eqstrategist.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>User logged in</t>
         </is>
@@ -9049,7 +9467,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>No</t>
@@ -9078,7 +9495,6 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9129,7 +9545,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>No</t>
@@ -9158,7 +9573,6 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9209,7 +9623,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>No</t>
@@ -9238,7 +9651,6 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9289,7 +9701,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>No</t>
@@ -9318,7 +9729,6 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9369,7 +9779,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>No</t>
@@ -9398,7 +9807,6 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9449,7 +9857,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>No</t>
@@ -9478,7 +9885,6 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9529,7 +9935,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>No</t>
@@ -9558,7 +9963,6 @@
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9609,7 +10013,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>No</t>
@@ -9638,7 +10041,6 @@
       <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9689,7 +10091,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>No</t>
@@ -9718,7 +10119,6 @@
       <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9769,7 +10169,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>No</t>
@@ -9798,7 +10197,6 @@
       <c r="Q11" t="b">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9849,7 +10247,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>No</t>
@@ -9878,7 +10275,6 @@
       <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9929,7 +10325,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>No</t>
@@ -9958,7 +10353,6 @@
       <c r="Q13" t="b">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10009,7 +10403,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>No</t>
@@ -10038,7 +10431,6 @@
       <c r="Q14" t="b">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10089,7 +10481,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>No</t>
@@ -10118,7 +10509,6 @@
       <c r="Q15" t="b">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10169,7 +10559,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>No</t>
@@ -10198,7 +10587,6 @@
       <c r="Q16" t="b">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10249,7 +10637,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>No</t>
@@ -10278,7 +10665,6 @@
       <c r="Q17" t="b">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10329,7 +10715,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>No</t>
@@ -10358,7 +10743,6 @@
       <c r="Q18" t="b">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10409,7 +10793,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>No</t>
@@ -10438,7 +10821,6 @@
       <c r="Q19" t="b">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10489,7 +10871,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>No</t>
@@ -10518,7 +10899,6 @@
       <c r="Q20" t="b">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10569,7 +10949,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>No</t>
@@ -10598,7 +10977,6 @@
       <c r="Q21" t="b">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10649,7 +11027,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>No</t>
@@ -10678,7 +11055,6 @@
       <c r="Q22" t="b">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10729,7 +11105,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>No</t>
@@ -10758,7 +11133,6 @@
       <c r="Q23" t="b">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -10809,7 +11183,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>No</t>
@@ -10838,7 +11211,6 @@
       <c r="Q24" t="b">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -10889,7 +11261,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>No</t>
@@ -10918,7 +11289,6 @@
       <c r="Q25" t="b">
         <v>0</v>
       </c>
-      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -10969,7 +11339,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>No</t>
@@ -10998,7 +11367,6 @@
       <c r="Q26" t="b">
         <v>0</v>
       </c>
-      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11049,7 +11417,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>No</t>
@@ -11078,7 +11445,6 @@
       <c r="Q27" t="b">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11129,7 +11495,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>No</t>
@@ -11158,7 +11523,6 @@
       <c r="Q28" t="b">
         <v>0</v>
       </c>
-      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11209,7 +11573,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>No</t>
@@ -11238,7 +11601,6 @@
       <c r="Q29" t="b">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11289,7 +11651,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>No</t>
@@ -11318,7 +11679,6 @@
       <c r="Q30" t="b">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11369,7 +11729,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>No</t>
@@ -11398,7 +11757,6 @@
       <c r="Q31" t="b">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11449,7 +11807,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>No</t>
@@ -11478,7 +11835,6 @@
       <c r="Q32" t="b">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11529,7 +11885,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>No</t>
@@ -11558,7 +11913,6 @@
       <c r="Q33" t="b">
         <v>0</v>
       </c>
-      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11609,7 +11963,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>No</t>
@@ -11638,7 +11991,6 @@
       <c r="Q34" t="b">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11689,7 +12041,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>No</t>
@@ -11718,7 +12069,6 @@
       <c r="Q35" t="b">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11769,7 +12119,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>No</t>
@@ -11798,7 +12147,6 @@
       <c r="Q36" t="b">
         <v>0</v>
       </c>
-      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11849,7 +12197,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>No</t>
@@ -11878,7 +12225,6 @@
       <c r="Q37" t="b">
         <v>0</v>
       </c>
-      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11929,7 +12275,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>No</t>
@@ -11958,7 +12303,6 @@
       <c r="Q38" t="b">
         <v>0</v>
       </c>
-      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -12009,7 +12353,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>No</t>
@@ -12038,7 +12381,6 @@
       <c r="Q39" t="b">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12089,7 +12431,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>No</t>
@@ -12118,7 +12459,6 @@
       <c r="Q40" t="b">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12169,7 +12509,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>No</t>
@@ -12198,7 +12537,6 @@
       <c r="Q41" t="b">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12249,7 +12587,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>No</t>
@@ -12278,7 +12615,6 @@
       <c r="Q42" t="b">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12329,7 +12665,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>No</t>
@@ -12358,7 +12693,6 @@
       <c r="Q43" t="b">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12409,7 +12743,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>No</t>
@@ -12438,7 +12771,6 @@
       <c r="Q44" t="b">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12489,7 +12821,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>No</t>
@@ -12518,7 +12849,6 @@
       <c r="Q45" t="b">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12569,7 +12899,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>No</t>
@@ -12605,7 +12934,6 @@
       <c r="Q46" t="b">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12656,7 +12984,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>No</t>
@@ -12688,7 +13015,6 @@
       <c r="Q47" t="b">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12739,7 +13065,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>No</t>
@@ -12771,7 +13096,6 @@
       <c r="Q48" t="b">
         <v>0</v>
       </c>
-      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12822,7 +13146,6 @@
           <t>Syd</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>No</t>
@@ -12854,7 +13177,6 @@
       <c r="Q49" t="b">
         <v>0</v>
       </c>
-      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12905,7 +13227,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>No</t>
@@ -12936,7 +13257,6 @@
       <c r="Q50" t="b">
         <v>0</v>
       </c>
-      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12987,7 +13307,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>No</t>
@@ -13018,7 +13337,6 @@
       <c r="Q51" t="b">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13069,7 +13387,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>No</t>
@@ -13100,7 +13417,6 @@
       <c r="Q52" t="b">
         <v>0</v>
       </c>
-      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13151,7 +13467,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>No</t>
@@ -13182,7 +13497,6 @@
       <c r="Q53" t="b">
         <v>0</v>
       </c>
-      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13233,7 +13547,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>No</t>
@@ -13264,7 +13577,6 @@
       <c r="Q54" t="b">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13315,7 +13627,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>No</t>
@@ -13346,7 +13657,6 @@
       <c r="Q55" t="b">
         <v>0</v>
       </c>
-      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13397,7 +13707,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>No</t>
@@ -13433,7 +13742,6 @@
       <c r="Q56" t="b">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13484,7 +13792,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>No</t>
@@ -13520,7 +13827,6 @@
       <c r="Q57" t="b">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13571,7 +13877,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>No</t>
@@ -13607,7 +13912,6 @@
       <c r="Q58" t="b">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13658,7 +13962,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>No</t>
@@ -13694,7 +13997,6 @@
       <c r="Q59" t="b">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13745,7 +14047,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>No</t>
@@ -13781,7 +14082,6 @@
       <c r="Q60" t="b">
         <v>0</v>
       </c>
-      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13832,7 +14132,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>No</t>
@@ -13868,7 +14167,6 @@
       <c r="Q61" t="b">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13919,7 +14217,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>No</t>
@@ -13955,7 +14252,6 @@
       <c r="Q62" t="b">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14006,7 +14302,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>No</t>
@@ -14042,7 +14337,6 @@
       <c r="Q63" t="b">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14093,7 +14387,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>No</t>
@@ -14129,7 +14422,6 @@
       <c r="Q64" t="b">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14180,7 +14472,6 @@
           <t>SG</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>No</t>
@@ -14216,7 +14507,6 @@
       <c r="Q65" t="b">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14267,7 +14557,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>No</t>
@@ -14303,7 +14592,6 @@
       <c r="Q66" t="b">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14354,7 +14642,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>No</t>
@@ -14384,7 +14671,6 @@
       <c r="Q67" t="b">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14435,7 +14721,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>No</t>
@@ -14465,7 +14750,6 @@
       <c r="Q68" t="b">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14516,7 +14800,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>No</t>
@@ -14552,7 +14835,6 @@
       <c r="Q69" t="b">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14603,7 +14885,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>No</t>
@@ -14639,7 +14920,6 @@
       <c r="Q70" t="b">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14690,7 +14970,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>No</t>
@@ -14726,7 +15005,6 @@
       <c r="Q71" t="b">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14777,7 +15055,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>No</t>
@@ -14813,7 +15090,6 @@
       <c r="Q72" t="b">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14864,7 +15140,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>No</t>
@@ -14893,7 +15168,6 @@
       <c r="Q73" t="b">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14944,7 +15218,6 @@
           <t>Bne</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>No</t>
@@ -14973,7 +15246,6 @@
       <c r="Q74" t="b">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15024,7 +15296,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>No</t>
@@ -15053,7 +15324,6 @@
       <c r="Q75" t="b">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15104,7 +15374,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>No</t>
@@ -15133,7 +15402,6 @@
       <c r="Q76" t="b">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15184,7 +15452,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>No</t>
@@ -15213,7 +15480,6 @@
       <c r="Q77" t="b">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15264,7 +15530,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>No</t>
@@ -15293,7 +15558,6 @@
       <c r="Q78" t="b">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15344,7 +15608,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>No</t>
@@ -15373,7 +15636,6 @@
       <c r="Q79" t="b">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15424,7 +15686,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>No</t>
@@ -15453,7 +15714,6 @@
       <c r="Q80" t="b">
         <v>0</v>
       </c>
-      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15556,7 +15816,6 @@
       <c r="Q81" t="b">
         <v>0</v>
       </c>
-      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15607,7 +15866,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>No</t>
@@ -15643,7 +15901,6 @@
       <c r="Q82" t="b">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15694,7 +15951,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>No</t>
@@ -15730,7 +15986,6 @@
       <c r="Q83" t="b">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15781,7 +16036,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>No</t>
@@ -15817,7 +16071,6 @@
       <c r="Q84" t="b">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -15868,7 +16121,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>No</t>
@@ -15904,7 +16156,6 @@
       <c r="Q85" t="b">
         <v>0</v>
       </c>
-      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15955,7 +16206,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>No</t>
@@ -15991,7 +16241,6 @@
       <c r="Q86" t="b">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -16042,7 +16291,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>No</t>
@@ -16078,7 +16326,6 @@
       <c r="Q87" t="b">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16129,7 +16376,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>No</t>
@@ -16165,7 +16411,6 @@
       <c r="Q88" t="b">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -16216,7 +16461,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>No</t>
@@ -16252,7 +16496,6 @@
       <c r="Q89" t="b">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -16303,7 +16546,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>No</t>
@@ -16340,7 +16582,6 @@
       <c r="Q90" t="b">
         <v>0</v>
       </c>
-      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -16391,7 +16632,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>No</t>
@@ -16428,7 +16668,6 @@
       <c r="Q91" t="b">
         <v>0</v>
       </c>
-      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -16479,7 +16718,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>No</t>
@@ -16516,7 +16754,6 @@
       <c r="Q92" t="b">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -16567,7 +16804,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>No</t>
@@ -16604,7 +16840,6 @@
       <c r="Q93" t="b">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -16655,7 +16890,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>No</t>
@@ -16692,7 +16926,6 @@
       <c r="Q94" t="b">
         <v>0</v>
       </c>
-      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -16743,7 +16976,6 @@
           <t>Global</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>No</t>
@@ -16780,7 +17012,6 @@
       <c r="Q95" t="b">
         <v>0</v>
       </c>
-      <c r="R95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
